--- a/similarities/split_global/harmonic_similarity_timestamps_73.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,471 +484,501 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:10.460000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=10.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:03.046928')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['E', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:32.669000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:01:16.300702', '0:01:21.817743')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=32.669</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=76.300702</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:43.780000', '0:00:46.440000'), ('0:01:41.320000', '0:01:54.060000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:56.500000', '0:02:58.780000'), ('0:00:23.080000', '0:00:29.900000')]</t>
+          <t>('0:00:00.240000', '0:00:08.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=43.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=101.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=176.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F:7', 'C', 'C:7', 'F:7']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab:7', 'Eb', 'Eb:7', 'Ab:7']]</t>
+          <t>['A#:7', 'D#:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:04.100000', '0:00:13.020000')]</t>
+          <t>('0:00:31.980000', '0:00:34.580000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.870000', '0:00:28.190000')]</t>
+          <t>('0:00:12.960000', '0:00:17.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=31.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=7.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=12.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'C#:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'B:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:36.075000', '0:00:38.456000')]</t>
+          <t>('0:00:19.500000', '0:00:30.320000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.932801', '0:00:49.560556')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=36.075']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=41.932801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_84</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:20.830000', '0:00:26')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:04.470000', '0:01:09.790000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=20.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=64.47']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:21.440000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+          <t>('0:03:46.020000', '0:04:01.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=21.44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=121.74']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=226.02</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -958,224 +988,234 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:14.565283', '0:00:18.936988'), ('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:04.220000', '0:01:06.980000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=64.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:38.250000', '0:00:42.100000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb:7']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab:7']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.640000', '0:00:16.710000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:22.370000')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=12.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=7.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C', 'C:min', 'G/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:00:15.565442', '0:00:19.466394')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:05.860000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:07.820000')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
